--- a/Experiments/Measurements/Single Banner Horizontal/S path/Antenna_2/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Horizontal/S path/Antenna_2/Transformed_Coordinates.xlsx
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>148.3818833419193</v>
+        <v>148.3818833419192</v>
       </c>
       <c r="H12" t="n">
-        <v>57.30474615853392</v>
+        <v>57.30474615853385</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-16.86429021161439</v>
+        <v>-16.86429021161437</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7652237746893</v>
+        <v>168.7652237746892</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>49.52385729314533</v>
+        <v>49.52385729314499</v>
       </c>
       <c r="H14" t="n">
-        <v>110.6768917745688</v>
+        <v>110.6768917745687</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>62.80262449246469</v>
+        <v>62.80262449246437</v>
       </c>
       <c r="H15" t="n">
-        <v>96.71071209509468</v>
+        <v>96.71071209509449</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>80.78472329195831</v>
+        <v>80.78472329195795</v>
       </c>
       <c r="H16" t="n">
-        <v>77.49947706706199</v>
+        <v>77.49947706706182</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>63.243994532509</v>
+        <v>63.24399453250866</v>
       </c>
       <c r="H17" t="n">
-        <v>63.39610668655878</v>
+        <v>63.39610668655854</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>96.57790504097983</v>
+        <v>96.57790504098001</v>
       </c>
       <c r="H18" t="n">
-        <v>60.03677337032774</v>
+        <v>60.03677337032784</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>18.25192913073509</v>
+        <v>18.25192913073525</v>
       </c>
       <c r="H19" t="n">
-        <v>121.032073039624</v>
+        <v>121.0320730396241</v>
       </c>
     </row>
     <row r="20">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>88.90948706866844</v>
+        <v>88.90948706866881</v>
       </c>
       <c r="H24" t="n">
-        <v>70.08430614316305</v>
+        <v>70.08430614316322</v>
       </c>
     </row>
     <row r="25">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>30.9413567132822</v>
+        <v>30.94135671328202</v>
       </c>
       <c r="H29" t="n">
-        <v>81.60707509813507</v>
+        <v>81.607075098135</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>50.65500378550897</v>
+        <v>50.65500378550881</v>
       </c>
       <c r="H30" t="n">
-        <v>87.65888415694221</v>
+        <v>87.65888415694209</v>
       </c>
     </row>
     <row r="31">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>54.11090810469141</v>
+        <v>54.11090810469118</v>
       </c>
       <c r="H32" t="n">
-        <v>98.42357862374116</v>
+        <v>98.42357862374101</v>
       </c>
     </row>
     <row r="33">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>141.1925457244921</v>
+        <v>141.1925457244918</v>
       </c>
       <c r="H34" t="n">
-        <v>73.16564942187586</v>
+        <v>73.16564942187571</v>
       </c>
     </row>
     <row r="35">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>20.16904198421832</v>
+        <v>20.1690419842182</v>
       </c>
       <c r="H35" t="n">
-        <v>99.38745730494699</v>
+        <v>99.38745730494691</v>
       </c>
     </row>
     <row r="36">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>27.57171085350594</v>
+        <v>27.57171085350575</v>
       </c>
       <c r="H36" t="n">
-        <v>103.1299088761395</v>
+        <v>103.1299088761394</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>94.94670151786339</v>
+        <v>94.94670151786319</v>
       </c>
       <c r="H37" t="n">
-        <v>84.54031111374339</v>
+        <v>84.5403111137433</v>
       </c>
     </row>
     <row r="38">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>74.14966824891161</v>
+        <v>74.14966824891196</v>
       </c>
       <c r="H38" t="n">
-        <v>66.36141667271104</v>
+        <v>66.36141667271123</v>
       </c>
     </row>
     <row r="39">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>88.91454590465231</v>
+        <v>88.9145459046525</v>
       </c>
       <c r="H40" t="n">
-        <v>77.78773370088167</v>
+        <v>77.78773370088174</v>
       </c>
     </row>
     <row r="41">
@@ -1672,7 +1672,7 @@
         <v>95.45744269287016</v>
       </c>
       <c r="H41" t="n">
-        <v>91.76800969737842</v>
+        <v>91.7680096973784</v>
       </c>
     </row>
     <row r="42">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>63.79368856547745</v>
+        <v>63.79368856547776</v>
       </c>
       <c r="H45" t="n">
-        <v>101.8157429606716</v>
+        <v>101.8157429606718</v>
       </c>
     </row>
     <row r="46">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>75.33061758306498</v>
+        <v>75.33061758306516</v>
       </c>
       <c r="H46" t="n">
-        <v>96.19635461916873</v>
+        <v>96.19635461916882</v>
       </c>
     </row>
     <row r="47">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>74.66661883443899</v>
+        <v>74.66661883443936</v>
       </c>
       <c r="H47" t="n">
-        <v>82.05906808175463</v>
+        <v>82.05906808175479</v>
       </c>
     </row>
     <row r="48">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>69.74037810628565</v>
+        <v>69.74037810628548</v>
       </c>
       <c r="H48" t="n">
-        <v>106.7845493015364</v>
+        <v>106.7845493015363</v>
       </c>
     </row>
     <row r="49">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>120.4614501398868</v>
+        <v>120.4614501398866</v>
       </c>
       <c r="H50" t="n">
-        <v>71.30231488277074</v>
+        <v>71.30231488277064</v>
       </c>
     </row>
     <row r="51">
